--- a/r4-core-94-gemeindecode-austrian-address/StructureDefinition-at-core-ext-patient-religion.xlsx
+++ b/r4-core-94-gemeindecode-austrian-address/StructureDefinition-at-core-ext-patient-religion.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-09-09T18:50:34+00:00</t>
+    <t>2024-09-09T18:58:45+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
